--- a/output/below_50/tRNA-Glu-TTC-2-1.xlsx
+++ b/output/below_50/tRNA-Glu-TTC-2-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="89">
   <si>
     <t>chr13</t>
   </si>
@@ -279,156 +279,6 @@
   </si>
   <si>
     <t>40% (47)</t>
-  </si>
-  <si>
-    <t>45492337</t>
-  </si>
-  <si>
-    <t>45492360</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>45492357</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>CGTGATCTCATCCAGTCTCC</t>
-  </si>
-  <si>
-    <t>3% (13)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 11, Doench 2016: 40%, Moreno-Mateos: 3%</t>
-  </si>
-  <si>
-    <t>3.16778E+11</t>
-  </si>
-  <si>
-    <t>45492435</t>
-  </si>
-  <si>
-    <t>45492458</t>
-  </si>
-  <si>
-    <t>45492455</t>
-  </si>
-  <si>
-    <t>TGCAAAGTCCAAAAGAACTG</t>
-  </si>
-  <si>
-    <t>96% (68)</t>
-  </si>
-  <si>
-    <t>23% (32)</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 49, Doench 2016: 96%, Moreno-Mateos: 23%</t>
-  </si>
-  <si>
-    <t>1.2553E+11</t>
-  </si>
-  <si>
-    <t>45492467</t>
-  </si>
-  <si>
-    <t>45492490</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>45492487</t>
-  </si>
-  <si>
-    <t>TAGAGGCTGGTGAAGAAGTG</t>
-  </si>
-  <si>
-    <t>94% (66)</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 45, Doench 2016: 94%, Moreno-Mateos: 91%</t>
-  </si>
-  <si>
-    <t>3.48508E+11</t>
-  </si>
-  <si>
-    <t>45492595</t>
-  </si>
-  <si>
-    <t>45492618</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>45492615</t>
-  </si>
-  <si>
-    <t>CCTCCCCTCAGCGCTGGTCC</t>
-  </si>
-  <si>
-    <t>25% (41)</t>
-  </si>
-  <si>
-    <t>59% (49)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 38, Doench 2016: 25%, Moreno-Mateos: 59%</t>
-  </si>
-  <si>
-    <t>2.35792E+11</t>
-  </si>
-  <si>
-    <t>chr15</t>
-  </si>
-  <si>
-    <t>45492602</t>
-  </si>
-  <si>
-    <t>45492625</t>
-  </si>
-  <si>
-    <t>45492605</t>
-  </si>
-  <si>
-    <t>ATCCGAGTCACGGCATTGTG</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>46% (43)</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 49, Doench 2016: 78%, Moreno-Mateos: 46%</t>
-  </si>
-  <si>
-    <t>3.57354E+11</t>
   </si>
 </sst>
 </file>
@@ -473,7 +323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1187,301 +1037,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N13" t="s">
-        <v>88</v>
-      </c>
-      <c r="O13" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13" t="s">
-        <v>97</v>
-      </c>
-      <c r="S13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" t="s">
-        <v>103</v>
-      </c>
-      <c r="O14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P14" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>106</v>
-      </c>
-      <c r="R14" t="s">
-        <v>107</v>
-      </c>
-      <c r="S14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>113</v>
-      </c>
-      <c r="L15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" t="s">
-        <v>111</v>
-      </c>
-      <c r="N15" t="s">
-        <v>114</v>
-      </c>
-      <c r="O15" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>116</v>
-      </c>
-      <c r="R15" t="s">
-        <v>117</v>
-      </c>
-      <c r="S15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>123</v>
-      </c>
-      <c r="L16" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" t="s">
-        <v>121</v>
-      </c>
-      <c r="N16" t="s">
-        <v>124</v>
-      </c>
-      <c r="O16" t="s">
-        <v>125</v>
-      </c>
-      <c r="P16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>105</v>
-      </c>
-      <c r="R16" t="s">
-        <v>126</v>
-      </c>
-      <c r="S16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>132</v>
-      </c>
-      <c r="L17" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" t="s">
-        <v>133</v>
-      </c>
-      <c r="O17" t="s">
-        <v>134</v>
-      </c>
-      <c r="P17" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>136</v>
-      </c>
-      <c r="R17" t="s">
-        <v>137</v>
-      </c>
-      <c r="S17" t="s">
-        <v>138</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
